--- a/export-mode.xlsx
+++ b/export-mode.xlsx
@@ -239,6 +239,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="思源黑体 CN Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">数量
 </t>
     </r>
@@ -1808,7 +1815,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1820,7 +1827,7 @@
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/export-mode.xlsx
+++ b/export-mode.xlsx
@@ -566,12 +566,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="思源黑体 CN Regular"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="思源黑体 CN Regular"/>
       <charset val="134"/>
     </font>
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1827,7 +1827,7 @@
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
